--- a/df_kmeans analises.xlsx
+++ b/df_kmeans analises.xlsx
@@ -23426,9 +23426,9 @@
   <dimension ref="A1:U1511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -76696,9 +76696,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:K1511">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
